--- a/fuentes/contenidos/grado10/guion08/Escaleta CN_10_08_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion08/Escaleta CN_10_08_CO.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$283</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="247">
   <si>
     <t>Asignatura</t>
   </si>
@@ -527,247 +527,247 @@
     <t>Interactivo que permite aplicar el concepto de calor latente en las curvas de calentamiento de una sustancia</t>
   </si>
   <si>
+    <t xml:space="preserve">Comprende los cambios de estado </t>
+  </si>
+  <si>
+    <t>Actividad que permite aprender a diferenciar los cambios de estado producidos por la absorción de calor de los provocados por la cesión de calor</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>El calor y la temperatura</t>
+  </si>
+  <si>
+    <t>Comprende los cambios de estado del agua</t>
+  </si>
+  <si>
+    <t>CN_08_09</t>
+  </si>
+  <si>
+    <t>Realiza cálculos con el calor latente de los cambios de estado</t>
+  </si>
+  <si>
+    <t>Actividad para consolidar el concepto de calor latente de cambio de estado mediante la ejercitación con situaciones problema</t>
+  </si>
+  <si>
+    <t>Dilatación térmica</t>
+  </si>
+  <si>
+    <t>Recurso que permite profundizar el concepto de dilatación térmica incluyendo ejemplos de aplicación</t>
+  </si>
+  <si>
+    <t>Recurso F7B-01</t>
+  </si>
+  <si>
+    <t>Los efectos del calor sobre los cuerpos</t>
+  </si>
+  <si>
+    <t>Interactivo que incluye actividad que sirve para para observar cómo afecta la temperatura a cuerpos en estado sólido, líquido y gaseoso</t>
+  </si>
+  <si>
+    <t>La dilatación del agua</t>
+  </si>
+  <si>
+    <t>La dilatación anómala del agua en una aplicación geológica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animación que presenta el proceso de gelivación </t>
+  </si>
+  <si>
+    <t>¿Qué tanto sabes sobre dilatación y calor?</t>
+  </si>
+  <si>
+    <t>Actividad que refuerza los conceptos básicos sobre dilatación</t>
+  </si>
+  <si>
+    <t>Recurso F4-03</t>
+  </si>
+  <si>
+    <t>El comportamiento anómalo del agua</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Identifica los conceptos de calor y temperatura</t>
+  </si>
+  <si>
+    <t>Actividad de refuerzo acerca del calor y la temperatura</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Resuelve un crucigrama sobre el calor</t>
+  </si>
+  <si>
+    <t>Actividad para profundizar sobre los conceptos de relacionados con el concepto de calor</t>
+  </si>
+  <si>
+    <t>Resuelve un crucigrama sobre el calor</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Aplica los conceptos de calor específico y calor latente</t>
+  </si>
+  <si>
+    <t>Actividad que permite solucionar problemas de calor específico y calor latente</t>
+  </si>
+  <si>
+    <t>Recurso M101A-01</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La dilatación térmica</t>
+  </si>
+  <si>
+    <t>Actividad que permite analizar situaciones y resolver problemas de dilatación térmica</t>
+  </si>
+  <si>
+    <t>Recurso M101A-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas ideal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leyes de los gases ideales </t>
+  </si>
+  <si>
+    <t>Leyes de un gas ideal</t>
+  </si>
+  <si>
+    <t>Recurso que permite comprender el comportamiento a escala microscópica y macroscópica de un gas ideal</t>
+  </si>
+  <si>
+    <t>Recurso F7-01</t>
+  </si>
+  <si>
+    <t>Actividad para resolver problemas aplicando las leyes de los gases ideales</t>
+  </si>
+  <si>
+    <t>Recurso M5A-02</t>
+  </si>
+  <si>
+    <t>Actividad que permite resolver problemas usando la ecuación de estado</t>
+  </si>
+  <si>
+    <t>Resuelve problemas con la ecuación de estado de un gas ideal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuación de estado de un gas ideal </t>
+  </si>
+  <si>
+    <t>Recurso F4-04</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Analiza situaciones que involucran el gas ideal</t>
+  </si>
+  <si>
+    <t>Actividad que permite resolver problemas aplicando las leyes del gas ideal</t>
+  </si>
+  <si>
+    <t>Recurso M101A-03</t>
+  </si>
+  <si>
+    <t>Leyes de la termodinámica</t>
+  </si>
+  <si>
+    <t>Procesos termodinámicos y trabajo</t>
+  </si>
+  <si>
+    <t>Procesos termodinámicos  y trabajo en los gases</t>
+  </si>
+  <si>
+    <t>Recurso que permite la exposición de los procesos termodinámicos y el concepto de trabajo en gases</t>
+  </si>
+  <si>
+    <t>Resuelve problemas sobre trabajo realizado por y sobre un gas ideal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad que propone situaciones problema sobre trabajo y gas ideal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segunda Ley de la termodinámica </t>
+  </si>
+  <si>
+    <t>Leyes de la termodinámica y máquinas térmicas</t>
+  </si>
+  <si>
+    <t>Interactivo que permite la comprensión de las leyes de la termodinámica y el funcionamiento de las máquinas térmicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refuerza tu aprendizaje: Resuelve problemas sobre las leyes de la termodinámica  </t>
+  </si>
+  <si>
+    <t>Actividad para resolver problemas aplicando las leyes de la termodinámica</t>
+  </si>
+  <si>
+    <t>Competencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Actividad que propone a través de gráficas calcular la potencia de acuerdo con la relación fuerza - velocidad</t>
+  </si>
+  <si>
+    <t>Fin de tema</t>
+  </si>
+  <si>
+    <t>Evaluación</t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos sobre el tema Trabajo y energía</t>
+  </si>
+  <si>
+    <t>Motor que incluye preguntas de respuesta abierta del tema Trabajo y energía</t>
+  </si>
+  <si>
+    <t>Competencias: dilatación térmica</t>
+  </si>
+  <si>
+    <t>Actividad que propone realizar un experimento para analizar la dilatación térmica</t>
+  </si>
+  <si>
+    <t>Recurso F13B-01</t>
+  </si>
+  <si>
+    <t>Recurso M7A-01</t>
+  </si>
+  <si>
+    <t>Mapa conceptual del tema Termodinámica</t>
+  </si>
+  <si>
+    <t>Identificando las características fundamentales de la termodinámica</t>
+  </si>
+  <si>
+    <t>Banco de actividades: Termodinámica</t>
+  </si>
+  <si>
+    <t>Recurso M101A-04</t>
+  </si>
+  <si>
+    <t>RM_01_01_CO</t>
+  </si>
+  <si>
+    <t>Recurso M5A-03</t>
+  </si>
+  <si>
+    <t>Competencias:Identificando situaciones que involucrana la termodinámica</t>
+  </si>
+  <si>
+    <t>Recurso F7B-02</t>
+  </si>
+  <si>
+    <t>Recurso M5A-05</t>
+  </si>
+  <si>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>RF_01_01_CO</t>
+  </si>
+  <si>
+    <t>Recurso M5A-04</t>
+  </si>
+  <si>
     <t>Recurso F4-02</t>
   </si>
   <si>
-    <t xml:space="preserve">Comprende los cambios de estado </t>
-  </si>
-  <si>
-    <t>Actividad que permite aprender a diferenciar los cambios de estado producidos por la absorción de calor de los provocados por la cesión de calor</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>El calor y la temperatura</t>
-  </si>
-  <si>
-    <t>Comprende los cambios de estado del agua</t>
-  </si>
-  <si>
-    <t>CN_08_09</t>
-  </si>
-  <si>
-    <t>Realiza cálculos con el calor latente de los cambios de estado</t>
-  </si>
-  <si>
-    <t>Actividad para consolidar el concepto de calor latente de cambio de estado mediante la ejercitación con situaciones problema</t>
-  </si>
-  <si>
-    <t>Dilatación térmica</t>
-  </si>
-  <si>
-    <t>Recurso que permite profundizar el concepto de dilatación térmica incluyendo ejemplos de aplicación</t>
-  </si>
-  <si>
-    <t>Recurso F7B-01</t>
-  </si>
-  <si>
-    <t>Los efectos del calor sobre los cuerpos</t>
-  </si>
-  <si>
-    <t>Interactivo que incluye actividad que sirve para para observar cómo afecta la temperatura a cuerpos en estado sólido, líquido y gaseoso</t>
-  </si>
-  <si>
-    <t>La dilatación del agua</t>
-  </si>
-  <si>
-    <t>La dilatación anómala del agua en una aplicación geológica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animación que presenta el proceso de gelivación </t>
-  </si>
-  <si>
-    <t>¿Qué tanto sabes sobre dilatación y calor?</t>
-  </si>
-  <si>
-    <t>Actividad que refuerza los conceptos básicos sobre dilatación</t>
-  </si>
-  <si>
-    <t>Recurso F4-03</t>
-  </si>
-  <si>
-    <t>El comportamiento anómalo del agua</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Identifica los conceptos de calor y temperatura</t>
-  </si>
-  <si>
-    <t>Actividad de refuerzo acerca del calor y la temperatura</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Resuelve un crucigrama sobre el calor</t>
-  </si>
-  <si>
-    <t>Actividad para profundizar sobre los conceptos de relacionados con el concepto de calor</t>
-  </si>
-  <si>
-    <t>Resuelve un crucigrama sobre el calor</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Aplica los conceptos de calor específico y calor latente</t>
-  </si>
-  <si>
-    <t>Actividad que permite solucionar problemas de calor específico y calor latente</t>
-  </si>
-  <si>
-    <t>Recurso M101A-01</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: La dilatación térmica</t>
-  </si>
-  <si>
-    <t>Actividad que permite analizar situaciones y resolver problemas de dilatación térmica</t>
-  </si>
-  <si>
-    <t>Recurso M101A-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas ideal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leyes de los gases ideales </t>
-  </si>
-  <si>
-    <t>Leyes de un gas ideal</t>
-  </si>
-  <si>
-    <t>Recurso que permite comprender el comportamiento a escala microscópica y macroscópica de un gas ideal</t>
-  </si>
-  <si>
-    <t>RF_10_08_CO</t>
-  </si>
-  <si>
-    <t>Recurso F7-01</t>
-  </si>
-  <si>
-    <t>Actividad para resolver problemas aplicando las leyes de los gases ideales</t>
-  </si>
-  <si>
-    <t>Recurso M5A-02</t>
-  </si>
-  <si>
-    <t>Actividad que permite resolver problemas usando la ecuación de estado</t>
-  </si>
-  <si>
-    <t>Resuelve problemas con la ecuación de estado de un gas ideal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuación de estado de un gas ideal </t>
-  </si>
-  <si>
-    <t>Recurso F4-04</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Analiza situaciones que involucran el gas ideal</t>
-  </si>
-  <si>
-    <t>Actividad que permite resolver problemas aplicando las leyes del gas ideal</t>
-  </si>
-  <si>
-    <t>Recurso M101A-03</t>
-  </si>
-  <si>
-    <t>Leyes de la termodinámica</t>
-  </si>
-  <si>
-    <t>Procesos termodinámicos y trabajo</t>
-  </si>
-  <si>
-    <t>Procesos termodinámicos  y trabajo en los gases</t>
-  </si>
-  <si>
-    <t>Recurso que permite la exposición de los procesos termodinámicos y el concepto de trabajo en gases</t>
-  </si>
-  <si>
-    <t>Resuelve problemas sobre trabajo realizado por y sobre un gas ideal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad que propone situaciones problema sobre trabajo y gas ideal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Segunda Ley de la termodinámica </t>
-  </si>
-  <si>
-    <t>Leyes de la termodinámica y máquinas térmicas</t>
-  </si>
-  <si>
-    <t>Interactivo que permite la comprensión de las leyes de la termodinámica y el funcionamiento de las máquinas térmicas</t>
-  </si>
-  <si>
-    <t>Recurso F4-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refuerza tu aprendizaje: Resuelve problemas sobre las leyes de la termodinámica  </t>
-  </si>
-  <si>
-    <t>Actividad para resolver problemas aplicando las leyes de la termodinámica</t>
-  </si>
-  <si>
-    <t>Competencias</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Actividad que propone a través de gráficas calcular la potencia de acuerdo con la relación fuerza - velocidad</t>
-  </si>
-  <si>
-    <t>Fin de tema</t>
-  </si>
-  <si>
-    <t>Evaluación</t>
-  </si>
-  <si>
-    <t>Evalúa tus conocimientos sobre el tema Trabajo y energía</t>
-  </si>
-  <si>
-    <t>Motor que incluye preguntas de respuesta abierta del tema Trabajo y energía</t>
-  </si>
-  <si>
-    <t>Competencias: dilatación térmica</t>
-  </si>
-  <si>
-    <t>Actividad que propone realizar un experimento para analizar la dilatación térmica</t>
-  </si>
-  <si>
-    <t>Recurso F13B-01</t>
-  </si>
-  <si>
-    <t>Recurso M7A-01</t>
-  </si>
-  <si>
-    <t>Mapa conceptual del tema Termodinámica</t>
-  </si>
-  <si>
-    <t>Identificando las características fundamentales de la termodinámica</t>
-  </si>
-  <si>
-    <t>Banco de actividades: Termodinámica</t>
-  </si>
-  <si>
-    <t>Recurso M101A-04</t>
-  </si>
-  <si>
-    <t>RM_01_01_CO</t>
-  </si>
-  <si>
-    <t>Recurso M5A-03</t>
-  </si>
-  <si>
-    <t>Recurso M5A-04</t>
-  </si>
-  <si>
-    <t>Competencias:Identificando situaciones que involucrana la termodinámica</t>
-  </si>
-  <si>
-    <t>Recurso F7B-02</t>
-  </si>
-  <si>
-    <t>Recurso M101A-05</t>
-  </si>
-  <si>
-    <t>Recurso M5A-05</t>
-  </si>
-  <si>
-    <t>Recurso M101AP-01</t>
+    <t>Recurso M4A-01</t>
   </si>
 </sst>
 </file>
@@ -934,7 +934,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1180,6 +1180,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -1384,7 +1390,7 @@
     <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1555,6 +1561,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1913,11 +1937,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U283"/>
+  <dimension ref="A1:U120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37:U37"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,7 +1959,7 @@
     <col min="11" max="11" width="13.140625" style="18" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="18" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="35" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" style="35" customWidth="1"/>
     <col min="17" max="17" width="20.42578125" style="35" customWidth="1"/>
     <col min="18" max="18" width="23" style="18" bestFit="1" customWidth="1"/>
@@ -2370,7 +2394,7 @@
         <v>19</v>
       </c>
       <c r="Q8" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R8" s="26" t="s">
         <v>145</v>
@@ -2382,7 +2406,7 @@
         <v>147</v>
       </c>
       <c r="U8" s="25" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2403,7 +2427,7 @@
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H9" s="8">
         <v>7</v>
@@ -2412,7 +2436,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>20</v>
@@ -2429,7 +2453,7 @@
         <v>19</v>
       </c>
       <c r="Q9" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R9" s="26" t="s">
         <v>145</v>
@@ -2438,10 +2462,10 @@
         <v>146</v>
       </c>
       <c r="T9" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U9" s="25" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2488,7 +2512,7 @@
         <v>19</v>
       </c>
       <c r="Q10" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R10" s="26" t="s">
         <v>152</v>
@@ -2500,7 +2524,7 @@
         <v>154</v>
       </c>
       <c r="U10" s="25" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2724,7 +2748,7 @@
         <v>19</v>
       </c>
       <c r="Q14" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R14" s="26" t="s">
         <v>152</v>
@@ -2733,10 +2757,10 @@
         <v>153</v>
       </c>
       <c r="T14" s="27" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="U14" s="25" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2757,7 +2781,7 @@
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H15" s="8">
         <v>13</v>
@@ -2766,7 +2790,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K15" s="22" t="s">
         <v>19</v>
@@ -2786,16 +2810,16 @@
         <v>8</v>
       </c>
       <c r="R15" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="S15" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="T15" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="T15" s="27" t="s">
+      <c r="U15" s="25" t="s">
         <v>171</v>
-      </c>
-      <c r="U15" s="25" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2816,7 +2840,7 @@
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H16" s="8">
         <v>14</v>
@@ -2825,7 +2849,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K16" s="22" t="s">
         <v>19</v>
@@ -2851,7 +2875,7 @@
         <v>130</v>
       </c>
       <c r="T16" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U16" s="25" t="s">
         <v>128</v>
@@ -2871,11 +2895,11 @@
         <v>149</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H17" s="8">
         <v>15</v>
@@ -2884,7 +2908,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K17" s="22" t="s">
         <v>20</v>
@@ -2901,7 +2925,7 @@
         <v>19</v>
       </c>
       <c r="Q17" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R17" s="26" t="s">
         <v>152</v>
@@ -2910,10 +2934,10 @@
         <v>153</v>
       </c>
       <c r="T17" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U17" s="25" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2930,11 +2954,11 @@
         <v>149</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H18" s="8">
         <v>16</v>
@@ -2943,7 +2967,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K18" s="22" t="s">
         <v>19</v>
@@ -2963,74 +2987,74 @@
         <v>8</v>
       </c>
       <c r="R18" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="S18" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="S18" s="25" t="s">
-        <v>170</v>
-      </c>
       <c r="T18" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U18" s="25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="64" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="E19" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="9" t="s">
+      <c r="E19" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="59">
+        <v>17</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="H19" s="8">
-        <v>17</v>
-      </c>
-      <c r="I19" s="21" t="s">
+      <c r="K19" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="L19" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="62">
+        <v>10</v>
+      </c>
+      <c r="R19" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="S19" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="T19" s="62" t="s">
         <v>184</v>
       </c>
-      <c r="K19" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="25">
-        <v>10</v>
-      </c>
-      <c r="R19" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="S19" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="T19" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="U19" s="25" t="s">
+      <c r="U19" s="62" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3048,13 +3072,13 @@
         <v>149</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F20" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="H20" s="8">
         <v>18</v>
@@ -3063,7 +3087,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K20" s="22" t="s">
         <v>19</v>
@@ -3083,16 +3107,16 @@
         <v>8</v>
       </c>
       <c r="R20" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="S20" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="S20" s="25" t="s">
-        <v>170</v>
-      </c>
       <c r="T20" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U20" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3113,7 +3137,7 @@
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H21" s="8">
         <v>19</v>
@@ -3122,7 +3146,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>19</v>
@@ -3148,7 +3172,7 @@
         <v>130</v>
       </c>
       <c r="T21" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U21" s="25" t="s">
         <v>128</v>
@@ -3172,7 +3196,7 @@
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H22" s="8">
         <v>20</v>
@@ -3181,7 +3205,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K22" s="22" t="s">
         <v>20</v>
@@ -3198,19 +3222,19 @@
         <v>19</v>
       </c>
       <c r="Q22" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R22" s="26" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="S22" s="25" t="s">
         <v>146</v>
       </c>
       <c r="T22" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="U22" s="25" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3231,7 +3255,7 @@
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H23" s="8">
         <v>21</v>
@@ -3240,7 +3264,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K23" s="22" t="s">
         <v>20</v>
@@ -3257,7 +3281,7 @@
         <v>19</v>
       </c>
       <c r="Q23" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R23" s="26" t="s">
         <v>145</v>
@@ -3266,10 +3290,10 @@
         <v>146</v>
       </c>
       <c r="T23" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U23" s="25" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3283,14 +3307,14 @@
         <v>123</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>198</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>199</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H24" s="8">
         <v>22</v>
@@ -3299,7 +3323,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K24" s="22" t="s">
         <v>20</v>
@@ -3316,7 +3340,7 @@
         <v>19</v>
       </c>
       <c r="Q24" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R24" s="26" t="s">
         <v>152</v>
@@ -3325,10 +3349,10 @@
         <v>153</v>
       </c>
       <c r="T24" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U24" s="25" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3342,14 +3366,14 @@
         <v>123</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="28" t="s">
         <v>198</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>199</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H25" s="8">
         <v>23</v>
@@ -3358,7 +3382,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K25" s="22" t="s">
         <v>20</v>
@@ -3375,19 +3399,19 @@
         <v>19</v>
       </c>
       <c r="Q25" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R25" s="26" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="S25" s="25" t="s">
         <v>146</v>
       </c>
       <c r="T25" s="27" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="U25" s="25" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3401,16 +3425,16 @@
         <v>123</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="E26" s="28" t="s">
-        <v>199</v>
-      </c>
       <c r="F26" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H26" s="8">
         <v>24</v>
@@ -3419,7 +3443,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K26" s="22" t="s">
         <v>20</v>
@@ -3436,19 +3460,19 @@
         <v>19</v>
       </c>
       <c r="Q26" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R26" s="26" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="S26" s="25" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="T26" s="27" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="U26" s="25" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3462,14 +3486,14 @@
         <v>123</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>142</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H27" s="8">
         <v>25</v>
@@ -3478,7 +3502,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K27" s="22" t="s">
         <v>20</v>
@@ -3495,7 +3519,7 @@
         <v>19</v>
       </c>
       <c r="Q27" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R27" s="26" t="s">
         <v>145</v>
@@ -3504,10 +3528,10 @@
         <v>146</v>
       </c>
       <c r="T27" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="U27" s="25" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3521,14 +3545,14 @@
         <v>123</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H28" s="8">
         <v>26</v>
@@ -3537,7 +3561,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K28" s="22" t="s">
         <v>20</v>
@@ -3554,7 +3578,7 @@
         <v>19</v>
       </c>
       <c r="Q28" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R28" s="26" t="s">
         <v>152</v>
@@ -3563,10 +3587,10 @@
         <v>153</v>
       </c>
       <c r="T28" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="U28" s="25" t="s">
         <v>243</v>
-      </c>
-      <c r="U28" s="25" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3580,14 +3604,14 @@
         <v>123</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H29" s="8">
         <v>27</v>
@@ -3596,7 +3620,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K29" s="22" t="s">
         <v>20</v>
@@ -3613,19 +3637,19 @@
         <v>19</v>
       </c>
       <c r="Q29" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R29" s="26" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="S29" s="25" t="s">
         <v>146</v>
       </c>
       <c r="T29" s="27" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="U29" s="25" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3639,14 +3663,14 @@
         <v>123</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H30" s="8">
         <v>28</v>
@@ -3655,7 +3679,7 @@
         <v>19</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K30" s="22" t="s">
         <v>20</v>
@@ -3672,7 +3696,7 @@
         <v>19</v>
       </c>
       <c r="Q30" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R30" s="26" t="s">
         <v>152</v>
@@ -3681,10 +3705,10 @@
         <v>153</v>
       </c>
       <c r="T30" s="27" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="U30" s="25" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3698,14 +3722,14 @@
         <v>123</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E31" s="28" t="s">
         <v>142</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H31" s="8">
         <v>29</v>
@@ -3714,7 +3738,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K31" s="22" t="s">
         <v>20</v>
@@ -3731,7 +3755,7 @@
         <v>19</v>
       </c>
       <c r="Q31" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R31" s="26" t="s">
         <v>145</v>
@@ -3740,10 +3764,10 @@
         <v>146</v>
       </c>
       <c r="T31" s="27" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="U31" s="25" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3757,12 +3781,12 @@
         <v>123</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="30"/>
       <c r="G32" s="9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H32" s="8">
         <v>30</v>
@@ -3771,7 +3795,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K32" s="22" t="s">
         <v>20</v>
@@ -3788,7 +3812,7 @@
         <v>19</v>
       </c>
       <c r="Q32" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R32" s="26" t="s">
         <v>152</v>
@@ -3797,10 +3821,10 @@
         <v>153</v>
       </c>
       <c r="T32" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="U32" s="25" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3814,12 +3838,12 @@
         <v>123</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="30"/>
       <c r="G33" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H33" s="8">
         <v>31</v>
@@ -3828,7 +3852,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K33" s="22" t="s">
         <v>20</v>
@@ -3845,19 +3869,19 @@
         <v>19</v>
       </c>
       <c r="Q33" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R33" s="26" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="S33" s="25" t="s">
         <v>146</v>
       </c>
       <c r="T33" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="U33" s="25" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3871,12 +3895,12 @@
         <v>123</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E34" s="19"/>
-      <c r="F34" s="30"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="9" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="H34" s="8">
         <v>32</v>
@@ -3885,25 +3909,37 @@
         <v>20</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="K34" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
+      <c r="N34" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="O34" s="20"/>
       <c r="P34" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="25"/>
+      <c r="Q34" s="25">
+        <v>6</v>
+      </c>
+      <c r="R34" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="S34" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="T34" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="U34" s="25" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -3916,12 +3952,12 @@
         <v>123</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="30"/>
       <c r="G35" s="9" t="s">
-        <v>228</v>
+        <v>10</v>
       </c>
       <c r="H35" s="8">
         <v>33</v>
@@ -3930,37 +3966,23 @@
         <v>20</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K35" s="22" t="s">
         <v>20</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M35" s="24"/>
-      <c r="N35" s="24" t="s">
-        <v>121</v>
-      </c>
+      <c r="N35" s="24"/>
       <c r="O35" s="20"/>
-      <c r="P35" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q35" s="25">
-        <v>10</v>
-      </c>
-      <c r="R35" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="S35" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="T35" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="U35" s="25" t="s">
-        <v>148</v>
-      </c>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="25"/>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -3973,12 +3995,12 @@
         <v>123</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
+      <c r="F36" s="30"/>
       <c r="G36" s="9" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="H36" s="8">
         <v>34</v>
@@ -3987,7 +4009,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K36" s="22" t="s">
         <v>20</v>
@@ -4004,7 +4026,7 @@
         <v>19</v>
       </c>
       <c r="Q36" s="25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R36" s="26" t="s">
         <v>145</v>
@@ -4013,10 +4035,10 @@
         <v>146</v>
       </c>
       <c r="T36" s="27" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="U36" s="25" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4030,12 +4052,12 @@
         <v>123</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="20"/>
       <c r="G37" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H37" s="8">
         <v>35</v>
@@ -4044,7 +4066,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K37" s="22" t="s">
         <v>20</v>
@@ -4058,7 +4080,7 @@
       </c>
       <c r="O37" s="20"/>
       <c r="P37" s="20" t="s">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="Q37" s="25">
         <v>6</v>
@@ -4070,10 +4092,10 @@
         <v>146</v>
       </c>
       <c r="T37" s="27" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="U37" s="25" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4812,367 +4834,191 @@
       <c r="T69" s="27"/>
       <c r="U69" s="25"/>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="P1:P2"/>
@@ -5205,7 +5051,7 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N31 N38:N69</xm:sqref>
+          <xm:sqref>N3:N31 N38:N69 N36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5235,7 +5081,7 @@
           <x14:formula1>
             <xm:f>[1]DATOS!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>A32:A37 I32:I37 K32:N37</xm:sqref>
+          <xm:sqref>A32:A37 I32:I37 K32:M37 N32:N35 N37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fuentes/contenidos/grado10/guion08/Escaleta CN_10_08_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion08/Escaleta CN_10_08_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="245">
   <si>
     <t>Asignatura</t>
   </si>
@@ -473,9 +473,6 @@
     <t>Recurso M5A-01</t>
   </si>
   <si>
-    <t>RM_10_08_CO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Propiedades térmicas de la materia </t>
   </si>
   <si>
@@ -579,9 +576,6 @@
   </si>
   <si>
     <t>Actividad que refuerza los conceptos básicos sobre dilatación</t>
-  </si>
-  <si>
-    <t>Recurso F4-03</t>
   </si>
   <si>
     <t>El comportamiento anómalo del agua</t>
@@ -1493,16 +1487,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1543,42 +1573,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1940,8 +1934,8 @@
   <dimension ref="A1:U120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X26" sqref="X26"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,94 +1964,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="62"/>
+      <c r="O1" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="Q1" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="53" t="s">
+      <c r="S1" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="55" t="s">
+      <c r="T1" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="53" t="s">
+      <c r="U1" s="44" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="45"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="57"/>
       <c r="M2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="54"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="45"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2406,7 +2400,7 @@
         <v>147</v>
       </c>
       <c r="U8" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2427,7 +2421,7 @@
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H9" s="8">
         <v>7</v>
@@ -2436,7 +2430,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>20</v>
@@ -2462,10 +2456,10 @@
         <v>146</v>
       </c>
       <c r="T9" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="U9" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2479,14 +2473,14 @@
         <v>123</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>149</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>150</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" s="8">
         <v>8</v>
@@ -2495,7 +2489,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>20</v>
@@ -2515,16 +2509,16 @@
         <v>6</v>
       </c>
       <c r="R10" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="S10" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="S10" s="25" t="s">
+      <c r="T10" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="T10" s="27" t="s">
-        <v>154</v>
-      </c>
       <c r="U10" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2538,14 +2532,14 @@
         <v>123</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>149</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>150</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H11" s="8">
         <v>9</v>
@@ -2554,7 +2548,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>19</v>
@@ -2580,7 +2574,7 @@
         <v>130</v>
       </c>
       <c r="T11" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U11" s="25" t="s">
         <v>128</v>
@@ -2597,14 +2591,14 @@
         <v>123</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>149</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>150</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H12" s="8">
         <v>10</v>
@@ -2613,7 +2607,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K12" s="22" t="s">
         <v>19</v>
@@ -2639,7 +2633,7 @@
         <v>130</v>
       </c>
       <c r="T12" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U12" s="25" t="s">
         <v>128</v>
@@ -2656,14 +2650,14 @@
         <v>123</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H13" s="8">
         <v>11</v>
@@ -2672,7 +2666,7 @@
         <v>19</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>19</v>
@@ -2698,7 +2692,7 @@
         <v>130</v>
       </c>
       <c r="T13" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U13" s="25" t="s">
         <v>128</v>
@@ -2715,14 +2709,14 @@
         <v>123</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H14" s="8">
         <v>12</v>
@@ -2731,7 +2725,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K14" s="22" t="s">
         <v>20</v>
@@ -2751,16 +2745,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="S14" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="S14" s="25" t="s">
-        <v>153</v>
-      </c>
       <c r="T14" s="27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="U14" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2774,14 +2768,14 @@
         <v>123</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H15" s="8">
         <v>13</v>
@@ -2790,7 +2784,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K15" s="22" t="s">
         <v>19</v>
@@ -2810,16 +2804,16 @@
         <v>8</v>
       </c>
       <c r="R15" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="S15" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="T15" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="T15" s="27" t="s">
+      <c r="U15" s="25" t="s">
         <v>170</v>
-      </c>
-      <c r="U15" s="25" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2833,14 +2827,14 @@
         <v>123</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H16" s="8">
         <v>14</v>
@@ -2849,7 +2843,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K16" s="22" t="s">
         <v>19</v>
@@ -2875,7 +2869,7 @@
         <v>130</v>
       </c>
       <c r="T16" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U16" s="25" t="s">
         <v>128</v>
@@ -2892,14 +2886,14 @@
         <v>123</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H17" s="8">
         <v>15</v>
@@ -2908,7 +2902,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K17" s="22" t="s">
         <v>20</v>
@@ -2928,16 +2922,16 @@
         <v>6</v>
       </c>
       <c r="R17" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="S17" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="S17" s="25" t="s">
-        <v>153</v>
-      </c>
       <c r="T17" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U17" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2951,14 +2945,14 @@
         <v>123</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H18" s="8">
         <v>16</v>
@@ -2967,7 +2961,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K18" s="22" t="s">
         <v>19</v>
@@ -2987,75 +2981,75 @@
         <v>8</v>
       </c>
       <c r="R18" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="S18" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="S18" s="25" t="s">
-        <v>169</v>
-      </c>
       <c r="T18" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U18" s="25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="64" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="E19" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="62" t="s">
+      <c r="D19" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="H19" s="36">
+        <v>17</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="H19" s="59">
-        <v>17</v>
-      </c>
-      <c r="I19" s="63" t="s">
+      <c r="K19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="K19" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="62">
-        <v>10</v>
-      </c>
-      <c r="R19" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="S19" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="T19" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="U19" s="62" t="s">
-        <v>148</v>
+      <c r="Q19" s="39">
+        <v>6</v>
+      </c>
+      <c r="R19" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="S19" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="T19" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="U19" s="39" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3069,16 +3063,16 @@
         <v>123</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F20" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>180</v>
       </c>
       <c r="H20" s="8">
         <v>18</v>
@@ -3087,7 +3081,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K20" s="22" t="s">
         <v>19</v>
@@ -3107,16 +3101,16 @@
         <v>8</v>
       </c>
       <c r="R20" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="S20" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="S20" s="25" t="s">
-        <v>169</v>
-      </c>
       <c r="T20" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U20" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3130,14 +3124,14 @@
         <v>123</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>142</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H21" s="8">
         <v>19</v>
@@ -3146,7 +3140,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>19</v>
@@ -3172,7 +3166,7 @@
         <v>130</v>
       </c>
       <c r="T21" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="U21" s="25" t="s">
         <v>128</v>
@@ -3189,14 +3183,14 @@
         <v>123</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>142</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H22" s="8">
         <v>20</v>
@@ -3205,7 +3199,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K22" s="22" t="s">
         <v>20</v>
@@ -3231,10 +3225,10 @@
         <v>146</v>
       </c>
       <c r="T22" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U22" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3248,14 +3242,14 @@
         <v>123</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>142</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H23" s="8">
         <v>21</v>
@@ -3264,7 +3258,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K23" s="22" t="s">
         <v>20</v>
@@ -3290,10 +3284,10 @@
         <v>146</v>
       </c>
       <c r="T23" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="U23" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3307,14 +3301,14 @@
         <v>123</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H24" s="8">
         <v>22</v>
@@ -3323,7 +3317,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K24" s="22" t="s">
         <v>20</v>
@@ -3343,16 +3337,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="S24" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="S24" s="25" t="s">
-        <v>153</v>
-      </c>
       <c r="T24" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="U24" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3366,14 +3360,14 @@
         <v>123</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H25" s="8">
         <v>23</v>
@@ -3382,7 +3376,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K25" s="22" t="s">
         <v>20</v>
@@ -3408,10 +3402,10 @@
         <v>146</v>
       </c>
       <c r="T25" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="U25" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3425,16 +3419,16 @@
         <v>123</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H26" s="8">
         <v>24</v>
@@ -3443,7 +3437,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K26" s="22" t="s">
         <v>20</v>
@@ -3469,10 +3463,10 @@
         <v>146</v>
       </c>
       <c r="T26" s="27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="U26" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3486,14 +3480,14 @@
         <v>123</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>142</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H27" s="8">
         <v>25</v>
@@ -3502,7 +3496,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K27" s="22" t="s">
         <v>20</v>
@@ -3528,10 +3522,10 @@
         <v>146</v>
       </c>
       <c r="T27" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U27" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3545,14 +3539,14 @@
         <v>123</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H28" s="8">
         <v>26</v>
@@ -3561,7 +3555,7 @@
         <v>19</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K28" s="22" t="s">
         <v>20</v>
@@ -3581,16 +3575,16 @@
         <v>6</v>
       </c>
       <c r="R28" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="S28" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="S28" s="25" t="s">
-        <v>153</v>
-      </c>
       <c r="T28" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="U28" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3604,14 +3598,14 @@
         <v>123</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H29" s="8">
         <v>27</v>
@@ -3620,7 +3614,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K29" s="22" t="s">
         <v>20</v>
@@ -3646,10 +3640,10 @@
         <v>146</v>
       </c>
       <c r="T29" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="U29" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3663,14 +3657,14 @@
         <v>123</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H30" s="8">
         <v>28</v>
@@ -3679,7 +3673,7 @@
         <v>19</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K30" s="22" t="s">
         <v>20</v>
@@ -3699,16 +3693,16 @@
         <v>6</v>
       </c>
       <c r="R30" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="S30" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="S30" s="25" t="s">
-        <v>153</v>
-      </c>
       <c r="T30" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="U30" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3722,14 +3716,14 @@
         <v>123</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E31" s="28" t="s">
         <v>142</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H31" s="8">
         <v>29</v>
@@ -3738,7 +3732,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K31" s="22" t="s">
         <v>20</v>
@@ -3764,10 +3758,10 @@
         <v>146</v>
       </c>
       <c r="T31" s="27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="U31" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3781,12 +3775,12 @@
         <v>123</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="30"/>
       <c r="G32" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H32" s="8">
         <v>30</v>
@@ -3795,7 +3789,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K32" s="22" t="s">
         <v>20</v>
@@ -3815,16 +3809,16 @@
         <v>6</v>
       </c>
       <c r="R32" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="S32" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="S32" s="25" t="s">
-        <v>153</v>
-      </c>
       <c r="T32" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="U32" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3838,12 +3832,12 @@
         <v>123</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="30"/>
       <c r="G33" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H33" s="8">
         <v>31</v>
@@ -3852,7 +3846,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K33" s="22" t="s">
         <v>20</v>
@@ -3878,10 +3872,10 @@
         <v>146</v>
       </c>
       <c r="T33" s="27" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="U33" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3895,12 +3889,12 @@
         <v>123</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="20"/>
       <c r="G34" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H34" s="8">
         <v>32</v>
@@ -3909,7 +3903,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K34" s="22" t="s">
         <v>20</v>
@@ -3935,10 +3929,10 @@
         <v>146</v>
       </c>
       <c r="T34" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="U34" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3952,7 +3946,7 @@
         <v>123</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="30"/>
@@ -3966,7 +3960,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K35" s="22" t="s">
         <v>20</v>
@@ -3995,12 +3989,12 @@
         <v>123</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="30"/>
       <c r="G36" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H36" s="8">
         <v>34</v>
@@ -4009,7 +4003,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K36" s="22" t="s">
         <v>20</v>
@@ -4035,10 +4029,10 @@
         <v>146</v>
       </c>
       <c r="T36" s="27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="U36" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4052,12 +4046,12 @@
         <v>123</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="20"/>
       <c r="G37" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H37" s="8">
         <v>35</v>
@@ -4066,7 +4060,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K37" s="22" t="s">
         <v>20</v>
@@ -4080,7 +4074,7 @@
       </c>
       <c r="O37" s="20"/>
       <c r="P37" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q37" s="25">
         <v>6</v>
@@ -4092,10 +4086,10 @@
         <v>146</v>
       </c>
       <c r="T37" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="U37" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -5021,12 +5015,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5041,6 +5029,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5063,7 +5057,7 @@
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>K38:K69 K3:K31 I3:I31 I38:I69 P3:P69</xm:sqref>
+          <xm:sqref>K38:K69 P3:P69 I3:I31 I38:I69 K3:K31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
